--- a/myHome 개발일지.xlsx
+++ b/myHome 개발일지.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="작업진행" sheetId="1" r:id="rId1"/>
-    <sheet name="목표" sheetId="2" r:id="rId2"/>
+    <sheet name="ToDo List" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">목표!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ToDo List'!$A$1:$B$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">작업진행!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>작업내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -203,10 +203,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -306,16 +302,77 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>linux.js
 linix.ejs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>리눅스/로그 관련 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 관리 기능 같은 메뉴 커스텀 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.ejs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기설정 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인설정 관리 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙여넣기/잘라내기 하고 나면 폴더 이동 에러 &gt;&gt; 폴더 이름이 "download/" 같은 형식이면, /로 split 하므로 문제가 생겼음 &gt;&gt; fullname에서 끝자리가 /일 경우를 처리하는 로직을 추가
+체크박스 전체 체크/전체 해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.js에서 /control을 분리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/routes/control.js로 분리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 커스텀 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크한 목록 확인을 클로저로 분리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키와 세션을 이용한 자동로그인 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm으로 sqlite3 설치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션과 mysql 연동 해제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -725,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -829,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
@@ -846,10 +903,10 @@
         <v>43773</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -863,27 +920,109 @@
         <v>43773</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>43773</v>
       </c>
+      <c r="C8" s="3">
+        <v>43773</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43773</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43773</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43773</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43773</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3">
+        <v>43773</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43773</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43773</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43773</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -897,11 +1036,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,28 +1104,28 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -997,8 +1136,32 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B9">
+  <autoFilter ref="A1:B14">
     <filterColumn colId="0">
       <filters>
         <filter val="N"/>

--- a/myHome 개발일지.xlsx
+++ b/myHome 개발일지.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="작업진행" sheetId="1" r:id="rId1"/>
     <sheet name="ToDo List" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ToDo List'!$A$1:$B$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ToDo List'!$A$1:$B$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">작업진행!$A$1:$F$7</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
   <si>
     <t>작업내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -348,10 +348,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>메뉴 커스텀 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -373,6 +369,151 @@
   </si>
   <si>
     <t>세션과 mysql 연동 해제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm install sh 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 세팅 설정 페이지 (initialSetting) 제작
+** 로그인 페이지에서도 확인 필요
+초기 세팅 확인 여부를 로그인 페이지로 옮김(반드시 거쳐가는 페이지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비동기 방식 때문에 DB 존재 여부 확인 전에 render 해버림 &gt;&gt; setTimeout 함수를 이용해서 해결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite를 이용한 초기 세팅 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlite를 이용한 로그인 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crypto를 이용한 비밀번호 암호화 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비동기 방식 때문에 callback 공부 필요성 절감 &gt;&gt; 전역 클로저로 임시변통(login.js)
+res 에러 문제 비동기 때문이었음.. 죄다 콜백에 집어넣어서 콜백 지옥을 만들어서 해결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료(crypto.pbkdf2Sync) 적용함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.ejs -&gt; explorer 즐겨찾기 관리 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기설정부터 라디오버튼으로 홈 폴더를 설정할 수 있도록 하자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftp 유저 관리 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velopert.com/379 expression-session 이 직접 쿠키에 접근하므로 쿠키 파서가 필요없다?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.ejs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘라내기/붙여넣기 디버깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cutFile이 비었는지 체크하는 부분이 없어서 targetlist만 비어있으면 무조건 함수 중지했던 부분 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 스크립트만 남기고 torrent, transmission, explorer 탭의 스크립트 부분 파일 분리함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ejs 그리는 것보다 document.ready가 느리다!!! &gt;&gt; ready 펑션에서 스트링을 제이쿼리로 셀렉트해서 추가하는 형식으로 해결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>explorer.ejs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름 통일 디버깅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 추가 기능
+빠른이동/즐겨찾기 리스트 통합, 같이 관리함. 해당 리스트를 변수로 저장(main.ejs)
+즐겨찾기 아이콘 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기세팅에서 홈 빼고 다 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort 넘버 어떻게 할 지 고민좀 -&gt; 다른 테이블에 현재 sortnum을 기록하는 방안은 어떨까? -&gt; 그냥 오토 인크리먼트 때리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch dir은 어떻게할지?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.ejs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙여넣기 디버깅
+트랜스포트 아이디/비밀번호/포트 DB 정보로 대체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personalData.js 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의존성 완전 제거/ 트랜스미션 메뉴에서 빠른 이동 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적으로 pwd의 foldername에는 다 따옴표가 붙어야 하지 않을까? 있고 없고 때문에 에러날듯
+sql에 추가시 글자가 잘려 들어감 --&gt; sql에는 따옴표 모두 제거하고, 홈페이지로 가져올 때는 모두 따옴표를 붙이는 식으로 가야 할 듯 -&gt; 작업완료
+sortNum은 오토 인크리먼트 때리자 -&gt; idx로 대체
+idx로 스마트하게 하자 -&gt; sortNum 삭제
+즐찾 추가하고 무조건 err 응답 -&gt; 변수 수정
+즐찾 삭제 안됨 -&gt; 조건에서 name 제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initialSetting.js insert값 정리
+main.js defaultSetting에서 넘겨주는 값 정리
+main.ejs에서 초기 설정값 넘겨 받아 메뉴에 삽입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +568,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -454,13 +603,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -477,10 +627,12 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="제목 3" xfId="1" builtinId="18"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -782,13 +934,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -991,38 +1143,226 @@
         <v>43773</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3">
         <v>43773</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3">
         <v>43773</v>
       </c>
+      <c r="C13" s="3">
+        <v>43774</v>
+      </c>
       <c r="D13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
+    </row>
+    <row r="14" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43774</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43775</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43775</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43776</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43776</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43776</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43776</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43776</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43777</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43777</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>43777</v>
+      </c>
+      <c r="C19" s="3">
+        <v>43777</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3">
+        <v>43777</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43777</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>43780</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43781</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>43781</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43781</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43781</v>
+      </c>
+      <c r="C23" s="3">
+        <v>43781</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1036,11 +1376,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1144,9 +1484,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
@@ -1160,8 +1500,55 @@
         <v>45</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B14">
+  <autoFilter ref="A1:B17">
     <filterColumn colId="0">
       <filters>
         <filter val="N"/>
@@ -1169,7 +1556,10 @@
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>